--- a/_DOC/Resultados_Provisórios.xlsx
+++ b/_DOC/Resultados_Provisórios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOR\IGOR\IgorAyelloBorges\PROJETOS\FinancialMarketSimulatorRealData\_DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A24C548-F25F-4760-99B7-29630F32B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40149D46-FA84-4EE9-B14D-B4437D40649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8513523D-87C0-499A-B24B-EA7C1D9119EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8513523D-87C0-499A-B24B-EA7C1D9119EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D95B36-26E2-4ECC-BF93-F06D37C9FA5D}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E1B0F9-3637-463F-9EAD-05A66FA5AF4A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_DOC/Resultados_Provisórios.xlsx
+++ b/_DOC/Resultados_Provisórios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOR\IGOR\IgorAyelloBorges\PROJETOS\FinancialMarketSimulatorRealData\_DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40149D46-FA84-4EE9-B14D-B4437D40649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EC7EAE-BB0E-465F-BA8E-DA99A7BB3F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8513523D-87C0-499A-B24B-EA7C1D9119EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8513523D-87C0-499A-B24B-EA7C1D9119EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E1B0F9-3637-463F-9EAD-05A66FA5AF4A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87634492-5B61-4CD3-B394-6701F85442ED}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
